--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-347331.6620972075</v>
+        <v>-349899.8623765736</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13000633.42697785</v>
+        <v>13000633.42697784</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>338.3517755722033</v>
       </c>
       <c r="D11" t="n">
-        <v>61.6874074377039</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0092538734576</v>
+        <v>57.37983885391213</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>267.6866481885162</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412177</v>
+        <v>14.65581357412172</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26664558937165</v>
+        <v>82.26664558937162</v>
       </c>
       <c r="T11" t="n">
-        <v>176.996853940816</v>
+        <v>176.9968539408159</v>
       </c>
       <c r="U11" t="n">
         <v>224.0740557600978</v>
@@ -1436,7 +1436,7 @@
         <v>342.8099844796648</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3168224572494</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1528,10 @@
         <v>152.9108639831331</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3257048998236</v>
+        <v>108.7705894188836</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6943568194081</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>20.70793712743363</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>117.8338987155166</v>
       </c>
       <c r="I13" t="n">
-        <v>69.4313042110339</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124314</v>
+        <v>62.01103647124312</v>
       </c>
       <c r="S13" t="n">
         <v>162.8479091326377</v>
@@ -1591,7 +1591,7 @@
         <v>259.6018821377868</v>
       </c>
       <c r="X13" t="n">
-        <v>198.788539190233</v>
+        <v>198.7885391902329</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6635371532906</v>
@@ -1607,25 +1607,25 @@
         <v>355.8127254646764</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3517755722033</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218787</v>
+        <v>40.72236055265646</v>
       </c>
       <c r="E14" t="n">
         <v>355.0092538734576</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9549295429072</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0006094546492</v>
+        <v>384.0006094546493</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6866481885163</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65581357412179</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937165</v>
+        <v>82.26664558937166</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0740557600978</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8311422713307</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3198525186088</v>
+        <v>322.3198525186089</v>
       </c>
       <c r="X14" t="n">
-        <v>321.7082282302146</v>
+        <v>342.8099844796649</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3168224572494</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9108639831331</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3257048998236</v>
+        <v>107.0916416866341</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6943568194082</v>
       </c>
       <c r="E16" t="n">
         <v>119.512846447765</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4999318241271</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.104692060224</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155166</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.4313042110339</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01103647124314</v>
+        <v>62.01103647124316</v>
       </c>
       <c r="S16" t="n">
         <v>162.8479091326377</v>
@@ -1819,7 +1819,7 @@
         <v>192.627833077365</v>
       </c>
       <c r="U16" t="n">
-        <v>247.4555899385494</v>
+        <v>259.2907220068087</v>
       </c>
       <c r="V16" t="n">
         <v>225.2165271250238</v>
@@ -1831,7 +1831,7 @@
         <v>198.788539190233</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6635371532906</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8375888460839</v>
+        <v>308.8375888460838</v>
       </c>
       <c r="C17" t="n">
         <v>291.3766389536108</v>
@@ -1850,16 +1850,16 @@
         <v>280.7867888032862</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0341172548651</v>
+        <v>308.034117254865</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9797929243147</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0254728360567</v>
+        <v>336.9667220104544</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>220.7115115699237</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29150897077908</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0217173222235</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U17" t="n">
-        <v>100.0633959322924</v>
+        <v>177.0989191415052</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8560056527382</v>
+        <v>253.8560056527381</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000162</v>
       </c>
       <c r="X17" t="n">
         <v>295.8348478610723</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3416858386569</v>
+        <v>312.3416858386568</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645405</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123113</v>
+        <v>93.35056828123106</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081566</v>
+        <v>74.71922020081558</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53770982917247</v>
+        <v>72.5377098291724</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553455</v>
+        <v>71.52479520553447</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12955544163152</v>
+        <v>92.12955544163145</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692408</v>
+        <v>70.85876209692401</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45616759244141</v>
+        <v>22.45616759244134</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03589985265064</v>
+        <v>15.03589985265057</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8727725140452</v>
+        <v>178.2879804958519</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6526964587725</v>
+        <v>145.6526964587724</v>
       </c>
       <c r="U19" t="n">
         <v>212.3155853882161</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2413905064313</v>
+        <v>178.2413905064312</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6267455191943</v>
+        <v>212.6267455191942</v>
       </c>
       <c r="X19" t="n">
         <v>151.8134025716404</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.1036085165039</v>
+        <v>144.688400534698</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>152.8979642376732</v>
+        <v>308.8375888460838</v>
       </c>
       <c r="C20" t="n">
         <v>291.3766389536108</v>
@@ -2087,16 +2087,16 @@
         <v>280.7867888032862</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0341172548651</v>
+        <v>308.034117254865</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9797929243147</v>
+        <v>220.6527607443219</v>
       </c>
       <c r="G20" t="n">
         <v>337.0254728360567</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7115115699237</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077916</v>
+        <v>35.29150897077908</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0217173222235</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.0989191415052</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8560056527382</v>
+        <v>253.8560056527381</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000162</v>
       </c>
       <c r="X20" t="n">
         <v>295.8348478610723</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3416858386569</v>
+        <v>312.3416858386568</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645405</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123113</v>
+        <v>93.35056828123106</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081566</v>
+        <v>74.71922020081558</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53770982917247</v>
+        <v>72.5377098291724</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553455</v>
+        <v>71.52479520553447</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12955544163152</v>
+        <v>92.12955544163145</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692408</v>
+        <v>70.85876209692401</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45616759244141</v>
+        <v>22.45616759244134</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03589985265064</v>
+        <v>15.03589985265057</v>
       </c>
       <c r="S22" t="n">
-        <v>178.2879804958512</v>
+        <v>115.8727725140451</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6526964587725</v>
+        <v>145.6526964587724</v>
       </c>
       <c r="U22" t="n">
         <v>212.3155853882161</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2413905064313</v>
+        <v>178.2413905064312</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6267455191943</v>
+        <v>275.0419535010011</v>
       </c>
       <c r="X22" t="n">
         <v>151.8134025716404</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6884005346981</v>
+        <v>144.688400534698</v>
       </c>
     </row>
     <row r="23">
@@ -2488,7 +2488,7 @@
         <v>71.52479520553447</v>
       </c>
       <c r="G25" t="n">
-        <v>154.5447634234381</v>
+        <v>92.12955544163145</v>
       </c>
       <c r="H25" t="n">
         <v>70.85876209692401</v>
@@ -2539,7 +2539,7 @@
         <v>212.6267455191942</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8134025716404</v>
+        <v>214.228610553447</v>
       </c>
       <c r="Y25" t="n">
         <v>144.688400534698</v>
@@ -2558,13 +2558,13 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
         <v>363.9465890348609</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
         <v>359.9009091231189</v>
@@ -3518,7 +3518,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958338</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3569,7 +3569,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124562</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3743,16 +3743,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1502.26111451365</v>
+        <v>1139.314829203297</v>
       </c>
       <c r="C11" t="n">
-        <v>1160.491644238698</v>
+        <v>797.5453589283447</v>
       </c>
       <c r="D11" t="n">
-        <v>1098.18113167536</v>
+        <v>797.5453589283447</v>
       </c>
       <c r="E11" t="n">
-        <v>739.5859257425745</v>
+        <v>739.5859257425747</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5859257425745</v>
+        <v>739.5859257425747</v>
       </c>
       <c r="G11" t="n">
         <v>351.7065222530299</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31596852725592</v>
+        <v>81.31596852725588</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5072,7 +5072,7 @@
         <v>3063.723498851406</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.386068790701</v>
+        <v>2837.386068790702</v>
       </c>
       <c r="V11" t="n">
         <v>2533.516228112589</v>
@@ -5084,7 +5084,7 @@
         <v>1861.667907912313</v>
       </c>
       <c r="Y11" t="n">
-        <v>1861.667907912313</v>
+        <v>1498.72162260196</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.3291315370398</v>
+        <v>418.3291315370404</v>
       </c>
       <c r="C13" t="n">
-        <v>276.5859952745916</v>
+        <v>308.4598492957438</v>
       </c>
       <c r="D13" t="n">
-        <v>276.5859952745916</v>
+        <v>185.5362565488668</v>
       </c>
       <c r="E13" t="n">
-        <v>276.5859952745916</v>
+        <v>185.5362565488668</v>
       </c>
       <c r="F13" t="n">
-        <v>276.5859952745916</v>
+        <v>185.5362565488668</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6688870650627</v>
+        <v>185.5362565488668</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6447469483793</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
@@ -5200,10 +5200,10 @@
         <v>138.2866539159351</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9257419016276</v>
+        <v>368.9257419016277</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869399</v>
+        <v>712.1374453869403</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946396023305</v>
@@ -5212,7 +5212,7 @@
         <v>1451.006677765986</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.988181723215</v>
+        <v>1776.988181723216</v>
       </c>
       <c r="P13" t="n">
         <v>2036.247587193691</v>
@@ -5221,7 +5221,7 @@
         <v>2140.509788383022</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.872377806008</v>
+        <v>2077.872377806009</v>
       </c>
       <c r="S13" t="n">
         <v>1913.379540298294</v>
@@ -5236,13 +5236,13 @@
         <v>1229.404709783953</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1805864124506</v>
+        <v>967.1805864124512</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3840821798919</v>
+        <v>766.3840821798926</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7845497018207</v>
+        <v>572.7845497018213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1869.621706194907</v>
+        <v>1139.314829203296</v>
       </c>
       <c r="C14" t="n">
-        <v>1527.852235919954</v>
+        <v>1139.314829203296</v>
       </c>
       <c r="D14" t="n">
-        <v>1196.779583978662</v>
+        <v>1098.18113167536</v>
       </c>
       <c r="E14" t="n">
-        <v>838.184378045877</v>
+        <v>739.5859257425749</v>
       </c>
       <c r="F14" t="n">
-        <v>454.3915199217281</v>
+        <v>739.5859257425749</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>351.7065222530301</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31596852725593</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810568</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5306,22 +5306,22 @@
         <v>3242.508199801724</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.508199801724</v>
+        <v>3063.723498851405</v>
       </c>
       <c r="U14" t="n">
-        <v>3242.508199801724</v>
+        <v>2837.3860687907</v>
       </c>
       <c r="V14" t="n">
-        <v>3242.508199801724</v>
+        <v>2533.516228112589</v>
       </c>
       <c r="W14" t="n">
-        <v>2916.932591197069</v>
+        <v>2207.940619507933</v>
       </c>
       <c r="X14" t="n">
-        <v>2591.974784903923</v>
+        <v>1861.667907912312</v>
       </c>
       <c r="Y14" t="n">
-        <v>2229.02849959357</v>
+        <v>1498.721622601959</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,16 +5358,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>778.338761036719</v>
+        <v>418.3291315370394</v>
       </c>
       <c r="C16" t="n">
-        <v>636.5956247742708</v>
+        <v>310.1557560959948</v>
       </c>
       <c r="D16" t="n">
-        <v>636.5956247742708</v>
+        <v>187.2321633491177</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8755778573365</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1786770248849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6688870650627</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6447469483793</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2866539159351</v>
+        <v>138.2866539159353</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9257419016276</v>
+        <v>368.9257419016277</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1374453869398</v>
+        <v>712.1374453869399</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946396023305</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.006677765986</v>
+        <v>1451.006677765985</v>
       </c>
       <c r="O16" t="n">
         <v>1776.988181723215</v>
@@ -5467,19 +5467,19 @@
         <v>1718.805971533278</v>
       </c>
       <c r="U16" t="n">
-        <v>1468.850830181208</v>
+        <v>1456.89615132438</v>
       </c>
       <c r="V16" t="n">
-        <v>1241.35938864078</v>
+        <v>1229.404709783952</v>
       </c>
       <c r="W16" t="n">
-        <v>979.135265269278</v>
+        <v>967.1805864124501</v>
       </c>
       <c r="X16" t="n">
-        <v>778.338761036719</v>
+        <v>766.3840821798915</v>
       </c>
       <c r="Y16" t="n">
-        <v>778.338761036719</v>
+        <v>572.7845497018203</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1632.37354145454</v>
+        <v>1518.911892787881</v>
       </c>
       <c r="C17" t="n">
-        <v>1338.05370412766</v>
+        <v>1224.592055461002</v>
       </c>
       <c r="D17" t="n">
-        <v>1054.430685134442</v>
+        <v>940.9690364677836</v>
       </c>
       <c r="E17" t="n">
-        <v>743.2851121497298</v>
+        <v>629.8234634830703</v>
       </c>
       <c r="F17" t="n">
-        <v>406.9418869736549</v>
+        <v>629.8234634830703</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>289.4530372098841</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.957832749797</v>
       </c>
       <c r="T17" t="n">
-        <v>3194.270753606925</v>
+        <v>3158.622764747551</v>
       </c>
       <c r="U17" t="n">
-        <v>3093.196616301579</v>
+        <v>2979.734967634919</v>
       </c>
       <c r="V17" t="n">
-        <v>2836.77640857154</v>
+        <v>2723.314759904881</v>
       </c>
       <c r="W17" t="n">
-        <v>2558.650432914957</v>
+        <v>2445.188784248299</v>
       </c>
       <c r="X17" t="n">
-        <v>2259.82735426741</v>
+        <v>2146.365705600751</v>
       </c>
       <c r="Y17" t="n">
-        <v>1944.33070190513</v>
+        <v>1830.869053238471</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5598,46 +5598,46 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1149231470832</v>
+        <v>569.1149231470827</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8214198327083</v>
+        <v>474.8214198327079</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3474600339047</v>
+        <v>399.3474600339043</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650436</v>
+        <v>326.0770460650432</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8297781806653</v>
+        <v>253.829778180665</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7696211689162</v>
+        <v>160.769621168916</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030606</v>
+        <v>89.19511400030595</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5698,25 +5698,25 @@
         <v>1912.106770459552</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063565899911</v>
+        <v>1732.017901271823</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.939630082969</v>
+        <v>1584.893965454881</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.479442822144</v>
+        <v>1370.433778194057</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.43763422979</v>
+        <v>1190.391969601702</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.663143806361</v>
+        <v>975.6174791782736</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3162725218756</v>
+        <v>822.2706078937883</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1207083637909</v>
+        <v>676.1207083637903</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.314462232242</v>
+        <v>1518.911892787882</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994624905362</v>
+        <v>1224.592055461002</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371605912143</v>
+        <v>940.969036467784</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2260329274312</v>
+        <v>629.8234634830719</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8828077513557</v>
+        <v>406.9418869736548</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4530372098842</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5762,7 +5762,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939507</v>
@@ -5771,31 +5771,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
         <v>3289.957832749797</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622764747552</v>
+        <v>3158.622764747551</v>
       </c>
       <c r="U20" t="n">
-        <v>3158.622764747552</v>
+        <v>2979.734967634919</v>
       </c>
       <c r="V20" t="n">
-        <v>2902.202557017513</v>
+        <v>2723.314759904881</v>
       </c>
       <c r="W20" t="n">
-        <v>2624.076581360931</v>
+        <v>2445.188784248299</v>
       </c>
       <c r="X20" t="n">
-        <v>2325.253502713383</v>
+        <v>2146.365705600751</v>
       </c>
       <c r="Y20" t="n">
-        <v>2009.756850351103</v>
+        <v>1830.869053238472</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031482</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1149231470832</v>
+        <v>569.1149231470827</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8214198327083</v>
+        <v>474.8214198327079</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3474600339047</v>
+        <v>399.3474600339043</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0770460650436</v>
+        <v>326.0770460650432</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8297781806653</v>
+        <v>253.829778180665</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7696211689162</v>
+        <v>160.769621168916</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030606</v>
+        <v>89.19511400030595</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5935,25 +5935,25 @@
         <v>1912.106770459552</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.017901271824</v>
+        <v>1795.063565899911</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.893965454882</v>
+        <v>1647.939630082969</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.433778194058</v>
+        <v>1433.479442822145</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.391969601703</v>
+        <v>1253.43763422979</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6174791782742</v>
+        <v>975.6174791782736</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2706078937889</v>
+        <v>822.2706078937883</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1207083637909</v>
+        <v>676.1207083637903</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>1862.179820792329</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.85998346545</v>
+        <v>1567.859983465449</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236964472232</v>
+        <v>1284.236964472231</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0913914875196</v>
+        <v>973.0913914875191</v>
       </c>
       <c r="F23" t="n">
-        <v>636.748166311444</v>
+        <v>636.7481663114436</v>
       </c>
       <c r="G23" t="n">
         <v>296.3183957699731</v>
@@ -5990,34 +5990,34 @@
         <v>262.2566059512977</v>
       </c>
       <c r="K23" t="n">
-        <v>613.8978279957348</v>
+        <v>596.0759796411442</v>
       </c>
       <c r="L23" t="n">
-        <v>1064.932041244143</v>
+        <v>1047.110192889553</v>
       </c>
       <c r="M23" t="n">
-        <v>1598.463945916068</v>
+        <v>1580.642097561477</v>
       </c>
       <c r="N23" t="n">
-        <v>2145.24276297485</v>
+        <v>2127.420914620259</v>
       </c>
       <c r="O23" t="n">
-        <v>2648.215233854187</v>
+        <v>2901.736699269702</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.570321301132</v>
+        <v>3296.51106562688</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.856683056815</v>
+        <v>3544.797427382562</v>
       </c>
       <c r="R23" t="n">
         <v>3668.873749613617</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.225760754245</v>
+        <v>3633.225760754244</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.890692751999</v>
+        <v>3501.890692751998</v>
       </c>
       <c r="U23" t="n">
         <v>3323.002895639367</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0259463352592</v>
+        <v>575.9802817071717</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7324430208844</v>
+        <v>481.6867783927968</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2584832220808</v>
+        <v>406.2128185939932</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9880692532197</v>
+        <v>332.9424046251322</v>
       </c>
       <c r="F25" t="n">
-        <v>323.7408013688415</v>
+        <v>260.6951367407539</v>
       </c>
       <c r="G25" t="n">
         <v>167.634979729005</v>
@@ -6187,10 +6187,10 @@
         <v>1045.52850236645</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1816310819648</v>
+        <v>829.1359664538774</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0317315519668</v>
+        <v>682.9860669238793</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>393.2994530991713</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>727.1188267890177</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1178.153040037426</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1711.684944709351</v>
+        <v>2200.835586644151</v>
       </c>
       <c r="N26" t="n">
-        <v>2258.463761768133</v>
+        <v>2747.614403702933</v>
       </c>
       <c r="O26" t="n">
-        <v>2761.43623264747</v>
+        <v>3250.58687458227</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6370,28 +6370,28 @@
         <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982167</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467806</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>665.7404053951325</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1116.774618643541</v>
       </c>
       <c r="M29" t="n">
-        <v>1921.876785462656</v>
+        <v>2095.32492147337</v>
       </c>
       <c r="N29" t="n">
-        <v>2468.655602521438</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O29" t="n">
-        <v>2971.628073400775</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.983160847721</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,13 +6537,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
         <v>779.7865456803195</v>
@@ -6616,28 +6616,28 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
         <v>924.7493799910139</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1496.733761127193</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.094314970129</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O32" t="n">
-        <v>2959.066785849466</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P32" t="n">
-        <v>3672.421873296411</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6844,28 +6844,28 @@
         <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6874,7 +6874,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6914,16 +6914,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6935,22 +6935,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>393.2994530991692</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>727.1188267890157</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L35" t="n">
-        <v>1178.153040037424</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M35" t="n">
-        <v>1711.684944709349</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N35" t="n">
-        <v>2258.463761768131</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O35" t="n">
-        <v>2761.436232647468</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P35" t="n">
         <v>3474.791320094414</v>
@@ -6962,25 +6962,25 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D36" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E36" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F36" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572845</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H36" t="n">
-        <v>100.154208495152</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7029,25 +7029,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O36" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R36" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S36" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T36" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U36" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V36" t="n">
         <v>1794.243147664371</v>
@@ -7056,10 +7056,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X36" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y36" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="37">
@@ -7078,7 +7078,7 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415472</v>
@@ -7093,16 +7093,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7114,7 +7114,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
         <v>2271.591606277852</v>
@@ -7123,7 +7123,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
@@ -7166,10 +7166,10 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J38" t="n">
         <v>437.4316968760676</v>
@@ -7187,7 +7187,7 @@
         <v>2302.596005545029</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424366</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P38" t="n">
         <v>3474.791320094415</v>
@@ -7196,7 +7196,7 @@
         <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309627</v>
@@ -7248,31 +7248,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q39" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R39" t="n">
         <v>2579.543989590362</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960326</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973154</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982181</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1076.411957014866</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486247</v>
+        <v>1609.943861686791</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.596005545029</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424366</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P41" t="n">
-        <v>3518.923563871311</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D42" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F42" t="n">
         <v>327.0192030246656</v>
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960314</v>
@@ -7573,7 +7573,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7603,7 +7603,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
         <v>1262.182746297367</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.299882151966</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
         <v>1400.778593038484</v>
@@ -7634,61 +7634,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
-        <v>393.29945309917</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K44" t="n">
-        <v>727.1188267890163</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1178.153040037425</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M44" t="n">
-        <v>1711.684944709349</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2258.463761768131</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O44" t="n">
-        <v>2761.436232647468</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7701,73 +7701,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R45" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S45" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T45" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U45" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V45" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W45" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X45" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y45" t="n">
         <v>1124.393991965682</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
         <v>423.2675027973143</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4450187886095</v>
+        <v>164.4450187886088</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592914</v>
+        <v>195.2094266592903</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419199</v>
+        <v>204.9000484419186</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526786</v>
+        <v>196.0014531526772</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740278</v>
+        <v>194.5125490740263</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201063</v>
+        <v>197.1426452201049</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561916</v>
+        <v>203.1061824561904</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567232</v>
+        <v>201.1836244567224</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485208</v>
+        <v>116.9502528485204</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814163</v>
+        <v>120.9423422814156</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981503</v>
+        <v>115.8314587981494</v>
       </c>
       <c r="M9" t="n">
-        <v>115.6174569072888</v>
+        <v>115.6174569072877</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775613</v>
+        <v>104.1233201775602</v>
       </c>
       <c r="O9" t="n">
-        <v>117.6967333951449</v>
+        <v>117.6967333951439</v>
       </c>
       <c r="P9" t="n">
-        <v>113.9903546175967</v>
+        <v>113.9903546175959</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213393</v>
+        <v>126.6229640213388</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.8405463218794</v>
+        <v>121.8405463218788</v>
       </c>
       <c r="M10" t="n">
-        <v>125.1725778274372</v>
+        <v>125.1725778274366</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466757</v>
+        <v>114.2593588466752</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0552829419912</v>
+        <v>126.0552829419907</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773786</v>
+        <v>127.1165875773781</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>18.0018670248391</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>274.0841553233394</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5185911550068</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>105.7385611944688</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>62.52018570663796</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>167.7369666428375</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>122.1718867553239</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>12.68816924374724</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5185911550046</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,10 +10598,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>28.65608477603882</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>277.2206841544158</v>
       </c>
       <c r="P38" t="n">
-        <v>277.220684154416</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>21.74982042514796</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>167.736966642837</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5185911550055</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.9710754359437</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707175</v>
+        <v>15.28796821707176</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.10714246085647</v>
+        <v>15.10714246085646</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>266.0745179841749</v>
+        <v>327.7619254218787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>297.6294150195454</v>
       </c>
       <c r="F11" t="n">
         <v>379.9549295429072</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>31.55511548093997</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6943568194082</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>119.512846447765</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4999318241271</v>
+        <v>118.499931824127</v>
       </c>
       <c r="G13" t="n">
-        <v>118.3967549327904</v>
+        <v>139.104692060224</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43130421103388</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3517755722034</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>287.0395648692223</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9549295429073</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6866481885162</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412177</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0740557600978</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8311422713307</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>21.10175624945018</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9108639831331</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.23406321318951</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194082</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4999318241271</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.104692060224</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8338987155166</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43130421103393</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>11.83513206825929</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6635371532906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9797929243147</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.05875082560231704</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7115115699238</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077916</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>77.03552320921285</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>155.9396246084107</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>112.3270321799928</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7115115699237</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0989191415053</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1187082.745981762</v>
+        <v>1187082.745981761</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>995250.3605126952</v>
+        <v>995250.3605126953</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26314,10 @@
         <v>327710.5354868152</v>
       </c>
       <c r="C2" t="n">
-        <v>327711.0057412657</v>
+        <v>327711.0057412658</v>
       </c>
       <c r="D2" t="n">
-        <v>327716.7632333436</v>
+        <v>327716.7632333437</v>
       </c>
       <c r="E2" t="n">
         <v>291816.685365181</v>
@@ -26326,7 +26326,7 @@
         <v>291816.685365181</v>
       </c>
       <c r="G2" t="n">
-        <v>317812.7607127157</v>
+        <v>317812.7607127159</v>
       </c>
       <c r="H2" t="n">
         <v>317812.7607127157</v>
@@ -26335,25 +26335,25 @@
         <v>328416.7079457133</v>
       </c>
       <c r="J2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="K2" t="n">
+        <v>328416.7079457134</v>
+      </c>
+      <c r="L2" t="n">
         <v>328416.7079457132</v>
       </c>
-      <c r="L2" t="n">
-        <v>328416.7079457131</v>
-      </c>
       <c r="M2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="N2" t="n">
+        <v>328416.7079457135</v>
+      </c>
+      <c r="O2" t="n">
+        <v>328416.7079457128</v>
+      </c>
+      <c r="P2" t="n">
         <v>328416.7079457134</v>
-      </c>
-      <c r="O2" t="n">
-        <v>328416.7079457132</v>
-      </c>
-      <c r="P2" t="n">
-        <v>328416.7079457133</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936253</v>
+        <v>38521.85015936427</v>
       </c>
       <c r="E3" t="n">
-        <v>1106215.961015504</v>
+        <v>1106215.961015502</v>
       </c>
       <c r="F3" t="n">
-        <v>1.132483545489424e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487383</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071768</v>
+        <v>22820.53767071771</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.34822049045</v>
+        <v>25410.34822049036</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487398</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.8573343059</v>
+        <v>422862.8573343053</v>
       </c>
       <c r="E4" t="n">
-        <v>38195.30988554749</v>
+        <v>38195.3098855475</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.3098855475</v>
+        <v>38195.30988554748</v>
       </c>
       <c r="G4" t="n">
-        <v>75223.10714400181</v>
+        <v>75223.10714400189</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400181</v>
+        <v>75223.10714400187</v>
       </c>
       <c r="I4" t="n">
         <v>86759.13279157187</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409848</v>
+        <v>82806.76150409842</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.76150409848</v>
+        <v>82806.76150409845</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409848</v>
+        <v>82806.76150409845</v>
       </c>
       <c r="M4" t="n">
-        <v>82806.76150409838</v>
+        <v>82806.76150409842</v>
       </c>
       <c r="N4" t="n">
-        <v>82806.76150409844</v>
+        <v>82806.76150409845</v>
       </c>
       <c r="O4" t="n">
-        <v>82806.76150409845</v>
+        <v>82806.76150409842</v>
       </c>
       <c r="P4" t="n">
-        <v>82806.76150409844</v>
+        <v>82806.76150409847</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.26308058918</v>
+        <v>34688.26308058923</v>
       </c>
       <c r="E5" t="n">
         <v>76569.57187911058</v>
@@ -26491,25 +26491,25 @@
         <v>85736.39714516661</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142190.944232433</v>
+        <v>-142195.3578103011</v>
       </c>
       <c r="C6" t="n">
-        <v>-144583.152320788</v>
+        <v>-144587.5629595657</v>
       </c>
       <c r="D6" t="n">
-        <v>-168356.207340914</v>
+        <v>-168360.5819953674</v>
       </c>
       <c r="E6" t="n">
-        <v>-929164.1574149807</v>
+        <v>-929392.9075561074</v>
       </c>
       <c r="F6" t="n">
-        <v>177051.8036005228</v>
+        <v>176823.0534593948</v>
       </c>
       <c r="G6" t="n">
-        <v>124490.819634341</v>
+        <v>124424.5449641347</v>
       </c>
       <c r="H6" t="n">
-        <v>162070.9289292149</v>
+        <v>162004.6542590086</v>
       </c>
       <c r="I6" t="n">
         <v>133100.6403382571</v>
@@ -26546,19 +26546,19 @@
         <v>130821.6565463183</v>
       </c>
       <c r="K6" t="n">
-        <v>156232.0047668086</v>
+        <v>156232.0047668088</v>
       </c>
       <c r="L6" t="n">
-        <v>118651.8954719346</v>
+        <v>118651.8954719345</v>
       </c>
       <c r="M6" t="n">
-        <v>-50956.56352526414</v>
+        <v>-50956.56352526411</v>
       </c>
       <c r="N6" t="n">
-        <v>156232.0047668089</v>
+        <v>156232.004766809</v>
       </c>
       <c r="O6" t="n">
-        <v>156232.0047668086</v>
+        <v>156232.0047668083</v>
       </c>
       <c r="P6" t="n">
         <v>156232.0047668088</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="G2" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="H2" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="I2" t="n">
         <v>73.89625281739677</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179734</v>
+        <v>48.65426975179936</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26802,22 +26802,22 @@
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="I4" t="n">
         <v>917.2184374034043</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
@@ -26826,10 +26826,10 @@
         <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98040685855501</v>
+        <v>44.98040685855705</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.122430841501</v>
+        <v>1041.122430841499</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81698200111168</v>
+        <v>85.81698200111202</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11802380521033</v>
+        <v>97.11802380520999</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.4716642661366</v>
+        <v>337.4716642661365</v>
       </c>
       <c r="I8" t="n">
-        <v>202.9352112403309</v>
+        <v>202.9352112403305</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128227</v>
+        <v>137.5825701128222</v>
       </c>
       <c r="S8" t="n">
-        <v>204.5629472868721</v>
+        <v>204.562947286872</v>
       </c>
       <c r="T8" t="n">
-        <v>222.2396322140269</v>
+        <v>222.2396322140268</v>
       </c>
       <c r="U8" t="n">
         <v>251.3300053034942</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.79346287451311</v>
+        <v>85.79346287451295</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805404</v>
+        <v>93.66019412805377</v>
       </c>
       <c r="S9" t="n">
-        <v>169.7392953264901</v>
+        <v>169.73929532649</v>
       </c>
       <c r="T9" t="n">
         <v>199.7429053561244</v>
@@ -28029,13 +28029,13 @@
         <v>161.4471089694517</v>
       </c>
       <c r="I10" t="n">
-        <v>152.8119778069477</v>
+        <v>152.8119778069476</v>
       </c>
       <c r="J10" t="n">
-        <v>87.15615952880839</v>
+        <v>87.15615952880813</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07602350739154</v>
+        <v>12.07602350739112</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.81524851917298</v>
+        <v>78.81524851917268</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3484074723762</v>
+        <v>173.348407472376</v>
       </c>
       <c r="S10" t="n">
-        <v>222.4875777891986</v>
+        <v>222.4875777891985</v>
       </c>
       <c r="T10" t="n">
         <v>227.5707122678988</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880421</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92111619880419</v>
+        <v>26.92111619880418</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="C17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="D17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="E17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="F17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="G17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="H17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="T17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="U17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="V17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="W17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="X17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="C19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="D19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="E19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="F19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="G19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="H19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="I19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="S19" t="n">
-        <v>73.8962528173967</v>
+        <v>11.48104483559001</v>
       </c>
       <c r="T19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="U19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="V19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="W19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="X19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.48104483559092</v>
+        <v>73.89625281739677</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="C20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="D20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="E20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="F20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="G20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="H20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="T20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="U20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="V20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="W20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="X20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="C22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="D22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="E22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="F22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="G22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="H22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="I22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="S22" t="n">
-        <v>11.48104483559069</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="T22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="U22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="V22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="W22" t="n">
-        <v>73.8962528173967</v>
+        <v>11.4810448355899</v>
       </c>
       <c r="X22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739677</v>
       </c>
     </row>
     <row r="23">
@@ -29208,7 +29208,7 @@
         <v>73.89625281739677</v>
       </c>
       <c r="G25" t="n">
-        <v>11.4810448355901</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="H25" t="n">
         <v>73.89625281739677</v>
@@ -29259,7 +29259,7 @@
         <v>73.89625281739677</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739677</v>
+        <v>11.48104483559015</v>
       </c>
       <c r="Y25" t="n">
         <v>73.89625281739677</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859378</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31300,7 +31300,7 @@
         <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P5" t="n">
         <v>2.123843523123063</v>
@@ -31309,7 +31309,7 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678707</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
         <v>0.3365553796171231</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945164</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296705</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
         <v>0.1992317778827147</v>
@@ -31449,7 +31449,7 @@
         <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522113</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
         <v>1.038498653576677</v>
@@ -31467,13 +31467,13 @@
         <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553525</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612933</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
         <v>0.0003613635632697367</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785821</v>
+        <v>0.1955950542785903</v>
       </c>
       <c r="H8" t="n">
-        <v>2.00313784963053</v>
+        <v>2.003137849630613</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330075044</v>
+        <v>7.540678330075358</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807682</v>
+        <v>16.60088573807752</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438568921</v>
+        <v>24.88042438569024</v>
       </c>
       <c r="L8" t="n">
-        <v>30.86636652806737</v>
+        <v>30.86636652806866</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459411</v>
+        <v>34.34478007459553</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256313</v>
+        <v>34.90051452256458</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620158047</v>
+        <v>32.95556620158185</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907798</v>
+        <v>28.12681329907915</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772625</v>
+        <v>21.12206541772713</v>
       </c>
       <c r="R8" t="n">
-        <v>12.286547828327</v>
+        <v>12.2865478283275</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373195</v>
+        <v>4.457122299373379</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501044936</v>
+        <v>0.8562173501045293</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228657</v>
+        <v>0.01564760434228722</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208471</v>
+        <v>0.1046525802208515</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711866</v>
+        <v>1.010723603711908</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976901973</v>
+        <v>3.603169976902123</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818145912</v>
+        <v>9.887373818146322</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294267</v>
+        <v>16.89909669294337</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172384</v>
+        <v>22.72292098172479</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701472955</v>
+        <v>26.51657701473065</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577198</v>
+        <v>27.21839190577312</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104929953</v>
+        <v>24.89951104930056</v>
       </c>
       <c r="P9" t="n">
-        <v>19.98405279673351</v>
+        <v>19.98405279673435</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468217</v>
+        <v>13.35881006468273</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589089</v>
+        <v>6.497640024589359</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347751</v>
+        <v>1.943875777347832</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4218233386971862</v>
+        <v>0.4218233386972037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424154</v>
+        <v>0.006885038172424441</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914273</v>
+        <v>0.08773720774914638</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878332</v>
+        <v>0.7800635379878657</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310584</v>
+        <v>2.638497120310694</v>
       </c>
       <c r="J10" t="n">
-        <v>6.20302058786439</v>
+        <v>6.203020587864649</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849131</v>
+        <v>10.19346831849173</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935891</v>
+        <v>13.04412995935946</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016789</v>
+        <v>13.75320612016846</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855746</v>
+        <v>13.42618561855802</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985156</v>
+        <v>12.40125550985208</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176904</v>
+        <v>10.61141647176948</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521397</v>
+        <v>7.346794732521704</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793271</v>
+        <v>3.944983904793435</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773696</v>
+        <v>1.52902024777376</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603827006</v>
+        <v>0.3748771603827162</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877225972</v>
+        <v>0.004785665877226172</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233474</v>
@@ -32549,10 +32549,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -32804,10 +32804,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33260,13 +33260,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187041</v>
+        <v>72.49953281187044</v>
       </c>
       <c r="K13" t="n">
         <v>232.9687757431238</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187041</v>
+        <v>72.49953281187038</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9687757431238</v>
+        <v>232.9687757431237</v>
       </c>
       <c r="L16" t="n">
         <v>346.6784883690023</v>
       </c>
       <c r="M16" t="n">
-        <v>374.554495592288</v>
+        <v>374.5544955922879</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7780623663443</v>
+        <v>371.7780623663442</v>
       </c>
       <c r="O16" t="n">
-        <v>329.274246421444</v>
+        <v>329.2742464214439</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8781873439146</v>
+        <v>261.8781873439145</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3153547366979</v>
+        <v>105.3153547366978</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
@@ -35966,7 +35966,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013291</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36358,7 +36358,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>355.1931535802395</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36370,16 +36370,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>782.1371562115584</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>315.3055921237194</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
@@ -36601,7 +36601,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
@@ -36610,13 +36610,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>504.5005474138404</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597773</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>399.7114722620383</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>706.658082473064</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36847,13 +36847,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597774</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -37072,7 +37072,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>577.7620011476558</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37084,10 +37084,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>263.4824740474667</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>315.3055921237172</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>536.7090856642578</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37555,10 +37555,10 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>785.2736850426348</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737876</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636241</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597774</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165998</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>477.3399348174801</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>418.5312714465564</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597776</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>315.305592123718</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>793.272910848855</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,7 +38181,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
